--- a/medicine/Enfance/La_Malédiction_des_Dragensblöt/La_Malédiction_des_Dragensblöt.xlsx
+++ b/medicine/Enfance/La_Malédiction_des_Dragensblöt/La_Malédiction_des_Dragensblöt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Mal%C3%A9diction_des_Dragensbl%C3%B6t</t>
+          <t>La_Malédiction_des_Dragensblöt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Malédiction des Dragensblöt est une série de romans d'heroic fantasy de l’écrivaine québécoise Anne Robillard.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Mal%C3%A9diction_des_Dragensbl%C3%B6t</t>
+          <t>La_Malédiction_des_Dragensblöt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Mal%C3%A9diction_des_Dragensbl%C3%B6t</t>
+          <t>La_Malédiction_des_Dragensblöt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Château, Wellan Inc., 2019, 319 p.  (ISBN 978-2-924442-42-5)Réédité aux éditions Michel Lafon en 2020, 329 p.  (ISBN 978-2-7499-4256-8), puis par les mêmes éditions au format poche en 2023, 336 p.  (ISBN 979-10-224-0612-3)
 Thorfrid et Brynjulf, Wellan Inc., 2019, 320 p.  (ISBN 978-2-924442-68-5)Réédité aux éditions Michel Lafon en 2020, 327 p.  (ISBN 978-2-7499-4257-5), puis par les mêmes éditions au format poche en 2023, 336 p.  (ISBN 979-10-224-0631-4)
@@ -546,9 +562,7 @@
 Esther et Isabel, Wellan Inc., 2020, 344 p.  (ISBN 978-2-924442-72-2)Réédité aux éditions Michel Lafon en 2021, 320 p.  (ISBN 978-2-7499-4366-4), puis par les mêmes éditions au format poche en 2024, 336 p.  (ISBN 979-10-224-0640-6)
 Ulrik et Andrew, Wellan Inc., 2020, 344 p.  (ISBN 978-2-924442-74-6)Réédité aux éditions Michel Lafon en 2022, 344 p.  (ISBN 978-2-7499-4843-0)
 Rose et Sortiarie, Wellan Inc., 2020, 325 p.  (ISBN 978-2-924442-76-0)Réédité aux éditions Michel Lafon en 2022, 352 p.  (ISBN 978-2-7499-4991-8)
-Samuel et Emily, Wellan Inc., 2020, 327 p.  (ISBN 978-2-924442-78-4)Réédité aux éditions Michel Lafon en 2023, 341 p.  (ISBN 978-2-7499-5246 8)
-Guide
-Le Monde des Dragensblöt et sa terrible malédiction..., Wellan Inc., 2020, 59 p.  (ISBN 978-2-924442-84-5)Coécrit avec Claudia Robillard et Aurélie Laget.</t>
+Samuel et Emily, Wellan Inc., 2020, 327 p.  (ISBN 978-2-924442-78-4)Réédité aux éditions Michel Lafon en 2023, 341 p.  (ISBN 978-2-7499-5246 8)</t>
         </is>
       </c>
     </row>
@@ -558,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Mal%C3%A9diction_des_Dragensbl%C3%B6t</t>
+          <t>La_Malédiction_des_Dragensblöt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +587,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Guide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Monde des Dragensblöt et sa terrible malédiction..., Wellan Inc., 2020, 59 p.  (ISBN 978-2-924442-84-5)Coécrit avec Claudia Robillard et Aurélie Laget.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Malédiction_des_Dragensblöt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Mal%C3%A9diction_des_Dragensbl%C3%B6t</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
